--- a/InputFiles/VegetablesProduction.xlsx
+++ b/InputFiles/VegetablesProduction.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahek.Naik\Documents\UiPath\EA-Practice\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D2FA25-80D5-4832-A7CD-7EC5BA8EB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18BDBE0-8165-4E0D-B22E-CE5808861358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="2" r:id="rId1"/>
+    <sheet name="PivotTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
   <si>
     <t>Vegetables</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>Price per Kg</t>
+  </si>
+  <si>
+    <t>Estimated Value</t>
   </si>
   <si>
     <t>Pumpkins</t>
@@ -473,7 +477,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,762 +510,837 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>782</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1.3</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>782</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>903</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1.3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>903</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>767</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1.3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>767</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>921</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1.6</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>1842</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>613</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1.6</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>1226</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>948</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1.6</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1896</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>713</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>1426</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>446</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>528</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1056</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>648</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>374</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>210</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>648</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>2.7</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1944</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>2.7</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>738</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>539</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>2.7</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1617</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>573</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>3.3</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1719</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>782</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>3.3</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>2346</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>868</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>3.3</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>2604</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>3.8</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1112</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>455</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>3.8</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1820</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>3.8</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1116</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>456</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1824</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>798</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>3192</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>576</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>556</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>2780</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>1625</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>876</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>4380</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>889</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <v>5.5</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>5334</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>5.5</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>774</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>687</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>5.5</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>4122</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>996</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>5.5</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>5976</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>679</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <v>5.5</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>4074</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>5.5</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>1518</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35">
         <v>6.6</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>945</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>425</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36">
         <v>6.6</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>2975</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>625</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>6.6</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>4375</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
@@ -1269,4 +1348,25 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0880C9C3-DD6B-48AA-932E-B6AF9D85EA3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>